--- a/Resources/2020ElectionResults.xlsx
+++ b/Resources/2020ElectionResults.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UofT SCS BootCamp\Project1-Group4\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE316E-EAE0-456F-A769-F7F8A532FE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B357D48-A079-4B8C-8310-7A9834D15B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>STATE</t>
   </si>
@@ -195,14 +206,20 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Totals</t>
+    <t>CD-1</t>
+  </si>
+  <si>
+    <t>CD-2</t>
+  </si>
+  <si>
+    <t>CD-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +239,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -295,14 +320,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,1070 +1283,1190 @@
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6">
-        <v>3037030</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1985023</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.65359999999999996</v>
-      </c>
-      <c r="E22" s="3">
-        <v>10</v>
-      </c>
-      <c r="F22" s="6">
-        <v>976414</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="6">
-        <v>75593</v>
-      </c>
-      <c r="J22" s="7">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="K22" s="3"/>
+      <c r="A22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="9">
+        <v>443112</v>
+      </c>
+      <c r="C22" s="9">
+        <v>266376</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>164045</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="9">
+        <v>12691</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2.86E-2</v>
+      </c>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>26</v>
+      <c r="A23" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B23" s="9">
-        <v>3631403</v>
+        <v>376349</v>
       </c>
       <c r="C23" s="9">
-        <v>2382202</v>
+        <v>168696</v>
       </c>
       <c r="D23" s="10">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="E23" s="11">
-        <v>11</v>
-      </c>
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="E23" s="11"/>
       <c r="F23" s="9">
-        <v>1167202</v>
+        <v>196692</v>
       </c>
       <c r="G23" s="10">
-        <v>0.32140000000000002</v>
-      </c>
-      <c r="H23" s="11"/>
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
       <c r="I23" s="9">
-        <v>81999</v>
+        <v>10961</v>
       </c>
       <c r="J23" s="10">
-        <v>2.2599999999999999E-2</v>
+        <v>2.9100000000000001E-2</v>
       </c>
       <c r="K23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6">
-        <v>5539301</v>
+        <v>3037030</v>
       </c>
       <c r="C24" s="6">
-        <v>2804040</v>
+        <v>1985023</v>
       </c>
       <c r="D24" s="7">
-        <v>0.50619999999999998</v>
+        <v>0.65359999999999996</v>
       </c>
       <c r="E24" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F24" s="6">
-        <v>2649852</v>
+        <v>976414</v>
       </c>
       <c r="G24" s="7">
-        <v>0.47839999999999999</v>
+        <v>0.32150000000000001</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="6">
-        <v>85409</v>
+        <v>75593</v>
       </c>
       <c r="J24" s="7">
-        <v>1.54E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="9">
-        <v>3277171</v>
+        <v>3631403</v>
       </c>
       <c r="C25" s="9">
-        <v>1717077</v>
+        <v>2382202</v>
       </c>
       <c r="D25" s="10">
-        <v>0.52400000000000002</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="E25" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" s="9">
-        <v>1484065</v>
+        <v>1167202</v>
       </c>
       <c r="G25" s="10">
-        <v>0.45279999999999998</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="9">
-        <v>76029</v>
+        <v>81999</v>
       </c>
       <c r="J25" s="10">
-        <v>2.3199999999999998E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="6">
-        <v>1313759</v>
+        <v>5539301</v>
       </c>
       <c r="C26" s="6">
-        <v>539398</v>
+        <v>2804040</v>
       </c>
       <c r="D26" s="7">
-        <v>0.41060000000000002</v>
-      </c>
-      <c r="E26" s="3"/>
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16</v>
+      </c>
       <c r="F26" s="6">
-        <v>756764</v>
+        <v>2649852</v>
       </c>
       <c r="G26" s="7">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="H26" s="3">
-        <v>6</v>
-      </c>
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="6">
-        <v>17597</v>
+        <v>85409</v>
       </c>
       <c r="J26" s="7">
-        <v>1.34E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="9">
-        <v>3025962</v>
+        <v>3277171</v>
       </c>
       <c r="C27" s="9">
-        <v>1253014</v>
+        <v>1717077</v>
       </c>
       <c r="D27" s="10">
-        <v>0.41410000000000002</v>
-      </c>
-      <c r="E27" s="11"/>
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="E27" s="11">
+        <v>10</v>
+      </c>
       <c r="F27" s="9">
-        <v>1718736</v>
+        <v>1484065</v>
       </c>
       <c r="G27" s="10">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="H27" s="11">
-        <v>10</v>
-      </c>
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="H27" s="11"/>
       <c r="I27" s="9">
-        <v>54212</v>
+        <v>76029</v>
       </c>
       <c r="J27" s="10">
-        <v>1.7899999999999999E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6">
-        <v>603640</v>
+        <v>1313759</v>
       </c>
       <c r="C28" s="6">
-        <v>244786</v>
+        <v>539398</v>
       </c>
       <c r="D28" s="7">
-        <v>0.40550000000000003</v>
+        <v>0.41060000000000002</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="6">
-        <v>343602</v>
+        <v>756764</v>
       </c>
       <c r="G28" s="7">
-        <v>0.56920000000000004</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="H28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I28" s="6">
-        <v>15252</v>
+        <v>17597</v>
       </c>
       <c r="J28" s="7">
-        <v>2.53E-2</v>
+        <v>1.34E-2</v>
       </c>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="9">
-        <v>951712</v>
+        <v>3025962</v>
       </c>
       <c r="C29" s="9">
-        <v>374583</v>
+        <v>1253014</v>
       </c>
       <c r="D29" s="10">
-        <v>0.39360000000000001</v>
+        <v>0.41410000000000002</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="9">
-        <v>556846</v>
+        <v>1718736</v>
       </c>
       <c r="G29" s="10">
-        <v>0.58509999999999995</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="H29" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I29" s="9">
-        <v>20283</v>
+        <v>54212</v>
       </c>
       <c r="J29" s="10">
-        <v>2.1299999999999999E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="K29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="6">
-        <v>1405376</v>
+        <v>603640</v>
       </c>
       <c r="C30" s="6">
-        <v>703486</v>
+        <v>244786</v>
       </c>
       <c r="D30" s="7">
-        <v>0.50060000000000004</v>
-      </c>
-      <c r="E30" s="3">
-        <v>6</v>
-      </c>
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="6">
-        <v>669890</v>
+        <v>343602</v>
       </c>
       <c r="G30" s="7">
-        <v>0.47670000000000001</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>0.56920000000000004</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3</v>
+      </c>
       <c r="I30" s="6">
-        <v>32000</v>
+        <v>15252</v>
       </c>
       <c r="J30" s="7">
-        <v>2.2800000000000001E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="9">
-        <v>806205</v>
+        <v>951712</v>
       </c>
       <c r="C31" s="9">
-        <v>424937</v>
+        <v>374583</v>
       </c>
       <c r="D31" s="10">
-        <v>0.52710000000000001</v>
-      </c>
-      <c r="E31" s="11">
-        <v>4</v>
-      </c>
+        <v>0.39360000000000001</v>
+      </c>
+      <c r="E31" s="11"/>
       <c r="F31" s="9">
-        <v>365660</v>
+        <v>556846</v>
       </c>
       <c r="G31" s="10">
-        <v>0.4536</v>
-      </c>
-      <c r="H31" s="11"/>
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2</v>
+      </c>
       <c r="I31" s="9">
-        <v>15608</v>
+        <v>20283</v>
       </c>
       <c r="J31" s="10">
-        <v>1.9400000000000001E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="6">
-        <v>4549353</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2608335</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0.57330000000000003</v>
-      </c>
-      <c r="E32" s="3">
-        <v>14</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1883274</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6">
-        <v>57744</v>
-      </c>
-      <c r="J32" s="7">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="K32" s="3"/>
+      <c r="A32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="9">
+        <v>321886</v>
+      </c>
+      <c r="C32" s="9">
+        <v>132261</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.41089999999999999</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="9">
+        <v>180290</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9">
+        <v>9335</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>36</v>
+      <c r="A33" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B33" s="9">
-        <v>923965</v>
+        <v>339666</v>
       </c>
       <c r="C33" s="9">
-        <v>501614</v>
+        <v>176468</v>
       </c>
       <c r="D33" s="10">
-        <v>0.54290000000000005</v>
+        <v>0.51949999999999996</v>
       </c>
       <c r="E33" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F33" s="9">
-        <v>401894</v>
+        <v>154377</v>
       </c>
       <c r="G33" s="10">
-        <v>0.435</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="9">
+        <v>8821</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="9">
+        <v>294831</v>
+      </c>
+      <c r="C34" s="9">
+        <v>65854</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="9">
+        <v>222179</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="H34" s="11">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
+        <v>6798</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1405376</v>
+      </c>
+      <c r="C35" s="6">
+        <v>703486</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6</v>
+      </c>
+      <c r="F35" s="6">
+        <v>669890</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.47670000000000001</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="6">
+        <v>32000</v>
+      </c>
+      <c r="J35" s="7">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9">
+        <v>806205</v>
+      </c>
+      <c r="C36" s="9">
+        <v>424937</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="E36" s="11">
+        <v>4</v>
+      </c>
+      <c r="F36" s="9">
+        <v>365660</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.4536</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="9">
+        <v>15608</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6">
+        <v>4549353</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2608335</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="E37" s="3">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1883274</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="6">
+        <v>57744</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="9">
+        <v>923965</v>
+      </c>
+      <c r="C38" s="9">
+        <v>501614</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="E38" s="11">
+        <v>5</v>
+      </c>
+      <c r="F38" s="9">
+        <v>401894</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.435</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="9">
         <v>20457</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J38" s="10">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B39" s="6">
         <v>8594826</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C39" s="6">
         <v>5230985</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D39" s="7">
         <v>0.60860000000000003</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E39" s="3">
         <v>29</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F39" s="6">
         <v>3244798</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G39" s="7">
         <v>0.3775</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6">
+      <c r="H39" s="3"/>
+      <c r="I39" s="6">
         <v>119043</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J39" s="7">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B40" s="9">
         <v>5524804</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C40" s="9">
         <v>2684292</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D40" s="10">
         <v>0.4859</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="9">
+      <c r="E40" s="11"/>
+      <c r="F40" s="9">
         <v>2758775</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G40" s="10">
         <v>0.49930000000000002</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H40" s="11">
         <v>15</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I40" s="9">
         <v>81737</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J40" s="10">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B41" s="6">
         <v>361819</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C41" s="6">
         <v>114902</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D41" s="7">
         <v>0.31759999999999999</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="6">
+      <c r="E41" s="3"/>
+      <c r="F41" s="6">
         <v>235595</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G41" s="7">
         <v>0.65110000000000001</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H41" s="3">
         <v>3</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I41" s="6">
         <v>11322</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J41" s="7">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B42" s="9">
         <v>5922202</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C42" s="9">
         <v>2679165</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D42" s="10">
         <v>0.45240000000000002</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="9">
+      <c r="E42" s="11"/>
+      <c r="F42" s="9">
         <v>3154834</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G42" s="10">
         <v>0.53269999999999995</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H42" s="11">
         <v>18</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I42" s="9">
         <v>88203</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J42" s="10">
         <v>1.49E-2</v>
       </c>
-      <c r="K37" s="11"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B43" s="6">
         <v>1560699</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C43" s="6">
         <v>503890</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>0.32290000000000002</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="6">
+      <c r="E43" s="3"/>
+      <c r="F43" s="6">
         <v>1020280</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G43" s="7">
         <v>0.65369999999999995</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H43" s="3">
         <v>7</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I43" s="6">
         <v>36529</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J43" s="7">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B44" s="9">
         <v>2374321</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C44" s="9">
         <v>1340383</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D44" s="10">
         <v>0.5645</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E44" s="11">
         <v>7</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F44" s="9">
         <v>958448</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G44" s="10">
         <v>0.4037</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="9">
+      <c r="H44" s="11"/>
+      <c r="I44" s="9">
         <v>75490</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J44" s="10">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="K39" s="11"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B45" s="6">
         <v>6915283</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C45" s="6">
         <v>3458229</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D45" s="7">
         <v>0.50009999999999999</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E45" s="3">
         <v>20</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F45" s="6">
         <v>3377674</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G45" s="7">
         <v>0.4884</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="6">
+      <c r="H45" s="3"/>
+      <c r="I45" s="6">
         <v>79380</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J45" s="7">
         <v>1.15E-2</v>
       </c>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B46" s="9">
         <v>517757</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C46" s="9">
         <v>307486</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D46" s="10">
         <v>0.59389999999999998</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E46" s="11">
         <v>4</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F46" s="9">
         <v>199922</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G46" s="10">
         <v>0.3861</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="9">
+      <c r="H46" s="11"/>
+      <c r="I46" s="9">
         <v>10349</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J46" s="10">
         <v>0.02</v>
       </c>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B47" s="6">
         <v>2513329</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C47" s="6">
         <v>1091541</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D47" s="7">
         <v>0.43430000000000002</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="6">
+      <c r="E47" s="3"/>
+      <c r="F47" s="6">
         <v>1385103</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G47" s="7">
         <v>0.55110000000000003</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H47" s="3">
         <v>9</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I47" s="6">
         <v>36685</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J47" s="7">
         <v>1.46E-2</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B48" s="9">
         <v>422609</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C48" s="9">
         <v>150471</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D48" s="10">
         <v>0.35610000000000003</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="9">
+      <c r="E48" s="11"/>
+      <c r="F48" s="9">
         <v>261043</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G48" s="10">
         <v>0.61770000000000003</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H48" s="11">
         <v>3</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I48" s="9">
         <v>11095</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J48" s="10">
         <v>2.63E-2</v>
       </c>
-      <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B49" s="6">
         <v>3053851</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C49" s="6">
         <v>1143711</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D49" s="7">
         <v>0.3745</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="6">
+      <c r="E49" s="3"/>
+      <c r="F49" s="6">
         <v>1852475</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G49" s="7">
         <v>0.60660000000000003</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H49" s="3">
         <v>11</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I49" s="6">
         <v>57665</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J49" s="7">
         <v>1.89E-2</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B50" s="9">
         <v>11315056</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C50" s="9">
         <v>5259126</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D50" s="10">
         <v>0.46479999999999999</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="9">
+      <c r="E50" s="11"/>
+      <c r="F50" s="9">
         <v>5890347</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G50" s="10">
         <v>0.52059999999999995</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H50" s="11">
         <v>38</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I50" s="9">
         <v>165583</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J50" s="10">
         <v>1.46E-2</v>
       </c>
-      <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B51" s="6">
         <v>1488289</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C51" s="6">
         <v>560282</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D51" s="7">
         <v>0.3765</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="6">
+      <c r="E51" s="3"/>
+      <c r="F51" s="6">
         <v>865140</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G51" s="7">
         <v>0.58130000000000004</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H51" s="3">
         <v>6</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I51" s="6">
         <v>62867</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J51" s="7">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B52" s="9">
         <v>367428</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C52" s="9">
         <v>242820</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D52" s="10">
         <v>0.66090000000000004</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E52" s="11">
         <v>3</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F52" s="9">
         <v>112704</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G52" s="10">
         <v>0.30669999999999997</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="9">
+      <c r="H52" s="11"/>
+      <c r="I52" s="9">
         <v>11904</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J52" s="10">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="K47" s="11"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B53" s="6">
         <v>4460524</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C53" s="6">
         <v>2413568</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D53" s="7">
         <v>0.54110000000000003</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E53" s="3">
         <v>13</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F53" s="6">
         <v>1962430</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G53" s="7">
         <v>0.44</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="6">
+      <c r="H53" s="3"/>
+      <c r="I53" s="6">
         <v>84526</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J53" s="7">
         <v>1.89E-2</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B54" s="9">
         <v>4087631</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C54" s="9">
         <v>2369612</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D54" s="10">
         <v>0.57969999999999999</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E54" s="11">
         <v>12</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F54" s="9">
         <v>1584651</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G54" s="10">
         <v>0.38769999999999999</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="9">
+      <c r="H54" s="11"/>
+      <c r="I54" s="9">
         <v>133368</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J54" s="10">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B55" s="6">
         <v>794652</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C55" s="6">
         <v>235984</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D55" s="7">
         <v>0.29699999999999999</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="6">
+      <c r="E55" s="3"/>
+      <c r="F55" s="6">
         <v>545382</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G55" s="7">
         <v>0.68630000000000002</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H55" s="3">
         <v>5</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I55" s="6">
         <v>13286</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J55" s="7">
         <v>1.67E-2</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B56" s="9">
         <v>3298041</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C56" s="9">
         <v>1630866</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D56" s="10">
         <v>0.4945</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E56" s="11">
         <v>10</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F56" s="9">
         <v>1610184</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G56" s="10">
         <v>0.48820000000000002</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="9">
+      <c r="H56" s="11"/>
+      <c r="I56" s="9">
         <v>56991</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J56" s="10">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="K51" s="11"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B57" s="6">
         <v>276765</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C57" s="6">
         <v>73491</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D57" s="7">
         <v>0.26550000000000001</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="6">
+      <c r="E57" s="3"/>
+      <c r="F57" s="6">
         <v>193559</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G57" s="7">
         <v>0.69940000000000002</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H57" s="3">
         <v>3</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I57" s="6">
         <v>9715</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J57" s="7">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="12">
-        <v>158376434</v>
-      </c>
-      <c r="C54" s="12">
-        <v>81268773</v>
-      </c>
-      <c r="D54" s="13">
-        <v>0.5131</v>
-      </c>
-      <c r="E54" s="4">
-        <v>306</v>
-      </c>
-      <c r="F54" s="12">
-        <v>74216728</v>
-      </c>
-      <c r="G54" s="13">
-        <v>0.46860000000000002</v>
-      </c>
-      <c r="H54" s="4">
-        <v>232</v>
-      </c>
-      <c r="I54" s="12">
-        <v>2890933</v>
-      </c>
-      <c r="J54" s="13">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0</v>
-      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A59:K59"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/al-2020.pdf" xr:uid="{7CAF1422-1AE3-45EE-B566-9333E37B8AF3}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ak-2020.pdf" xr:uid="{395A9699-545A-4B88-982A-842FAA0410C8}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/az-2020.pdf" xr:uid="{77C34C63-ED23-43F3-A40F-2BE0DF4F683A}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ar-2020.pdf" xr:uid="{7486D0CF-220E-4741-A4D1-06DBEC6A39F6}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ca-2020.pdf" xr:uid="{3DB09D5F-155B-4EA1-985A-75E0586F1504}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/co-2020.pdf" xr:uid="{06375E71-FD98-4E99-9D2C-0DF9FED0ED22}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ct-2020.pdf" xr:uid="{2E922512-F65A-48D8-9BCA-1E39E6DC5D38}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/de-2020.pdf" xr:uid="{4C66048D-DCF8-4B3B-B98D-CEDDFE670410}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/dc-2020.pdf" xr:uid="{50CC4E4E-CF4C-45F6-9679-B7B0E1F37595}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.presidency.ucsb.edu/sites/default/files/fl-2020_rev.pdf" xr:uid="{2FAA1B71-8AB5-4130-BB19-5B5EC03A93B3}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ga-2020.pdf" xr:uid="{591E4143-80ED-4D59-BCA5-B47EBCB43ED1}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/hi-2020.pdf" xr:uid="{9EC605DC-41F1-4410-821E-983ED1B1393E}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/id-2020.pdf" xr:uid="{A6581D91-AF20-44C2-A8C5-B9A91BA124E4}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/il-2020.pdf" xr:uid="{171662A8-7F05-40FE-BBF8-C77922AAC0ED}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://enr.indianavoters.in.gov/site/index.html" xr:uid="{29B23F07-6B11-4F02-9F6C-3C07A7DD7451}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ia-2020.pdf" xr:uid="{742EF4A7-2214-4E4B-8A1D-1C4AB28E3CF6}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ks-2020.pdf" xr:uid="{2B6BC223-0BE7-4B59-8D9A-463BD767C8F8}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ky-2020.pdf" xr:uid="{E4B0750E-7FB0-4582-AA63-C709CB347BF0}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/la-2020.xlsx" xr:uid="{4E58D7A4-4D3D-4096-8C0C-8227694359F6}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/me-2020.xlsx" xr:uid="{CEC82F29-0989-468D-BDD3-938EFC25CCB0}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/md-2020.xlsx" xr:uid="{14609921-0D26-4758-9A99-DE4CDE18A164}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ma-2020.pdf" xr:uid="{95C65AFF-8853-446E-85A5-42FBCEF709DA}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/mi-2020.pdf" xr:uid="{74E75D88-7258-47A9-AC62-33445443925E}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/mn-2020.pdf" xr:uid="{8ABD6A21-747A-43FF-988A-FF1793A6E201}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ms-2020.pdf" xr:uid="{D35B83D0-2707-42C7-9907-2AA070913200}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/mo-2020.pdf" xr:uid="{C0C13AF4-C7BA-4268-BCD3-DD8018BDA0C4}"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/mt-2020.pdf" xr:uid="{FFF91883-8593-4B02-BA94-2F3786899BB1}"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ne-2020.pdf" xr:uid="{EB619D81-B9AA-4764-B68A-64191020F795}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nv-2020.pdf" xr:uid="{4FAE5999-A497-41FB-A555-2B759572267E}"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://www.presidency.ucsb.edu/sites/default/files/nh-2020-updated.xls" xr:uid="{86B11F0A-11D8-4AD0-83F4-4BB9298335E1}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nj-2020.pdf" xr:uid="{0BC50287-E84E-47E5-A590-FCDB5461B8BB}"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nm-2020.pdf" xr:uid="{8ADC8D79-82EF-4F4D-BA05-E55A5B1705DF}"/>
-    <hyperlink ref="A34" r:id="rId33" display="https://www.presidency.ucsb.edu/sites/default/files/ny-2020.xlsx" xr:uid="{C71269FD-307B-4520-95AF-FBC61F8A0264}"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nc-2020.pdf" xr:uid="{32BDF372-E61F-4570-B08D-9080519CE9F3}"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nd-2020.pdf" xr:uid="{FDF36BFD-27FE-4E55-8124-07E481EB8D6C}"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/oh-2020.xlsx" xr:uid="{5A3F632B-DC3A-4910-98A2-8D60EFEC3A4F}"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ok-2020.pdf" xr:uid="{DBBA984A-D5E5-41A3-AC30-81708E312770}"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/or-2020.pdf" xr:uid="{DE429423-8558-4E0C-BCEE-14FF46E03EB7}"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/pa-2020.pdf" xr:uid="{95A59856-C4FF-493A-A20D-61B07C358D48}"/>
-    <hyperlink ref="A41" r:id="rId40" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ri-2020.pdf" xr:uid="{8D84FF2A-81A2-44E3-AFF8-4DF03C29BAAA}"/>
-    <hyperlink ref="A42" r:id="rId41" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/sc-2020.pdf" xr:uid="{27F3B693-BC41-43F2-80C8-5B93BCDA6800}"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/sd-2020.xlsx" xr:uid="{301B6944-BD39-4BBB-86EA-2F07D6E0C431}"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/tn-2020.pdf" xr:uid="{17E37ED7-3FD5-4953-93A0-B86571374B37}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/tx-2020.pdf" xr:uid="{78A6ABBA-5CD6-48D1-A563-4E8D8DB25DF2}"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ut-2020.pdf" xr:uid="{5B6AD96F-E3D5-43BB-A277-E9FFBE54494A}"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/vt-2020.pdf" xr:uid="{BA39F093-992A-4763-83BE-ED23DF04E837}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/va-2020.pdf" xr:uid="{EF5CDB49-8789-46AF-82BA-76E6F01A47F9}"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/wa-2020.pdf" xr:uid="{0567AFD0-8C67-44DD-A821-670216552F52}"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/wv-2020.pdf" xr:uid="{1B3D18F2-0CA6-433D-B4AA-270B802D2E70}"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/wi-2020.pdf" xr:uid="{4EBBDAAB-915A-457F-BFE9-A2906201EB88}"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/wy-2020.pdf" xr:uid="{8AE73060-6C60-4834-9E8E-C74A0A8B205D}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/al-2020.pdf" xr:uid="{E6ECB4B3-B6C2-4B72-826B-C53D86F58F63}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ak-2020.pdf" xr:uid="{4290DC4F-4669-41BB-842F-860EF9ABF5A9}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/az-2020.pdf" xr:uid="{DFECE891-0475-4A5F-926E-A292B25A8667}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ar-2020.pdf" xr:uid="{4506B112-D7F1-4D10-AE34-710502B6AFC8}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ca-2020.pdf" xr:uid="{56915D7F-3F41-4052-9517-367C653D22FE}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/co-2020.pdf" xr:uid="{711810E3-287D-40ED-96F7-26130E134648}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ct-2020.pdf" xr:uid="{FB72D3E1-6089-4DEA-9B9B-3CD0A6E11C0E}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/de-2020.pdf" xr:uid="{CDA14B58-AB27-4A91-82BD-4BD33DE9B6C7}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/dc-2020.pdf" xr:uid="{CA340778-DA99-4E98-937C-FB9C24C2421B}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.presidency.ucsb.edu/sites/default/files/fl-2020_rev.pdf" xr:uid="{13C05F64-7291-4AAA-A3CD-4E01292A7409}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ga-2020.pdf" xr:uid="{75F75B6F-6445-4854-B12B-7861CC832138}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/hi-2020.pdf" xr:uid="{C1A2984E-2195-43F3-A08F-6F41D3713327}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/id-2020.pdf" xr:uid="{38111890-0B28-4C59-951B-71050594E3E7}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/il-2020.pdf" xr:uid="{FA21D0DD-F55B-43A5-A577-53CCA947E808}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://enr.indianavoters.in.gov/site/index.html" xr:uid="{7A0D6F36-D670-4390-9159-3DBBC60F05EA}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ia-2020.pdf" xr:uid="{1616421C-0A6E-43D4-B556-2A49148244FD}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ks-2020.pdf" xr:uid="{92DFD5AC-FC37-4DAA-A34E-410A9E582DB9}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ky-2020.pdf" xr:uid="{13FA2E6E-524F-41D7-82E0-005F46E38AD3}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/la-2020.xlsx" xr:uid="{2B060AED-C558-418B-9BB8-72D4BFE0ED59}"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/me-2020.xlsx" xr:uid="{8FAAEFA9-FA55-43EA-AE71-8BE5204D3E25}"/>
+    <hyperlink ref="A24" r:id="rId21" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/md-2020.xlsx" xr:uid="{C739709C-6B47-4274-9844-85BBF1A09C97}"/>
+    <hyperlink ref="A25" r:id="rId22" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ma-2020.pdf" xr:uid="{29131B0E-CC67-4AEB-B309-06A4C689D268}"/>
+    <hyperlink ref="A26" r:id="rId23" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/mi-2020.pdf" xr:uid="{F113EA61-1EB6-4E1B-83E0-43AD1E036729}"/>
+    <hyperlink ref="A27" r:id="rId24" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/mn-2020.pdf" xr:uid="{F1683BD5-4DAC-438A-AA68-0C9345F652C3}"/>
+    <hyperlink ref="A28" r:id="rId25" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ms-2020.pdf" xr:uid="{D0BBD8AC-0795-4F11-B6D5-A6F8665378B5}"/>
+    <hyperlink ref="A29" r:id="rId26" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/mo-2020.pdf" xr:uid="{88FE6646-3E7B-43F4-AED6-F6A815A812DC}"/>
+    <hyperlink ref="A30" r:id="rId27" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/mt-2020.pdf" xr:uid="{7922EC7D-4982-4E8F-9386-F43B43DC39C4}"/>
+    <hyperlink ref="A31" r:id="rId28" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ne-2020.pdf" xr:uid="{D2F7E942-7465-4131-ADB2-16F6F30A6A75}"/>
+    <hyperlink ref="A35" r:id="rId29" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nv-2020.pdf" xr:uid="{297F660F-4639-425A-A071-F081B293709C}"/>
+    <hyperlink ref="A36" r:id="rId30" display="https://www.presidency.ucsb.edu/sites/default/files/nh-2020-updated.xls" xr:uid="{184FDB7F-566D-496F-B303-2D8225EBD80D}"/>
+    <hyperlink ref="A37" r:id="rId31" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nj-2020.pdf" xr:uid="{0C9E52EC-25F9-413B-87EC-A7CED272B3CB}"/>
+    <hyperlink ref="A38" r:id="rId32" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nm-2020.pdf" xr:uid="{0775E1C0-DC98-47EE-9547-C20F5270099C}"/>
+    <hyperlink ref="A39" r:id="rId33" display="https://www.presidency.ucsb.edu/sites/default/files/ny-2020.xlsx" xr:uid="{9EA48AE3-970E-4DA6-9A88-531B6A85797D}"/>
+    <hyperlink ref="A40" r:id="rId34" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nc-2020.pdf" xr:uid="{AF075C00-C529-40C0-8132-E0DD79C59668}"/>
+    <hyperlink ref="A41" r:id="rId35" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/nd-2020.pdf" xr:uid="{D436769C-147B-43F5-B39D-4527AC8AE720}"/>
+    <hyperlink ref="A42" r:id="rId36" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/oh-2020.xlsx" xr:uid="{8FBB1B1F-B262-48BF-A5DB-05E012AB98BA}"/>
+    <hyperlink ref="A43" r:id="rId37" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ok-2020.pdf" xr:uid="{9C5F05E3-8059-45E4-A301-DF9D538AB4C9}"/>
+    <hyperlink ref="A44" r:id="rId38" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/or-2020.pdf" xr:uid="{1E4A5E4E-2754-4412-AB34-E08362F9FFDB}"/>
+    <hyperlink ref="A45" r:id="rId39" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/pa-2020.pdf" xr:uid="{5140FE6C-0B2F-4C8B-8FDD-ADC3A6C17B72}"/>
+    <hyperlink ref="A46" r:id="rId40" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ri-2020.pdf" xr:uid="{BCCD0CED-985D-4525-95AC-384CAA4B088C}"/>
+    <hyperlink ref="A47" r:id="rId41" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/sc-2020.pdf" xr:uid="{49CA96CD-49CF-4FD4-B3F2-65CB9C6E7F61}"/>
+    <hyperlink ref="A48" r:id="rId42" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/sd-2020.xlsx" xr:uid="{6583BB32-8903-4F95-915E-F55699651AB9}"/>
+    <hyperlink ref="A49" r:id="rId43" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/tn-2020.pdf" xr:uid="{9F41E8BC-EE96-4229-B6A3-7DF238547439}"/>
+    <hyperlink ref="A50" r:id="rId44" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/tx-2020.pdf" xr:uid="{80800A06-5213-41C6-920C-C6F20EB89863}"/>
+    <hyperlink ref="A51" r:id="rId45" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/ut-2020.pdf" xr:uid="{634C40E2-24E7-4F70-94A6-5E283C0F723F}"/>
+    <hyperlink ref="A52" r:id="rId46" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/vt-2020.pdf" xr:uid="{82D894D6-29BE-46F2-B053-F3469CD69FBD}"/>
+    <hyperlink ref="A53" r:id="rId47" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/va-2020.pdf" xr:uid="{CBB68789-323E-433F-9E7C-869D07AA5995}"/>
+    <hyperlink ref="A54" r:id="rId48" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/wa-2020.pdf" xr:uid="{7C833412-E987-4C4B-99A7-75CCA5B53DDB}"/>
+    <hyperlink ref="A55" r:id="rId49" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/wv-2020.pdf" xr:uid="{CD93684C-F6DE-472A-AB84-49ECC33C4C8B}"/>
+    <hyperlink ref="A56" r:id="rId50" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/wi-2020.pdf" xr:uid="{3C29D574-7C8C-4CCD-AA9F-258055168AB4}"/>
+    <hyperlink ref="A57" r:id="rId51" display="https://www.presidency.ucsb.edu/sites/default/files/election_data/wy-2020.pdf" xr:uid="{1EEAC506-5684-47B8-B746-F67BF5AFD241}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
